--- a/3_Analysis/table3_COPR_s_g_hs.xlsx
+++ b/3_Analysis/table3_COPR_s_g_hs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boterolab1/Box Sync/CB_VF_Shared/Wet_Lab/Projects/FS/FS_Analysis/3_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C566794F-722F-0147-995A-957854E01F6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AAF4F-8E24-A14F-A97D-F5E11C8B905C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7160" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{5B1A3B39-4E52-DE43-9707-7C361D8EB237}"/>
+    <workbookView xWindow="25740" yWindow="0" windowWidth="25440" windowHeight="15000" xr2:uid="{4A759874-60AB-594D-9FC7-CC96E945B2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="table3_COPR_s_g_hs_inc_raw" sheetId="2" r:id="rId1"/>
@@ -425,7 +425,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3621F359-1CEC-5848-ABB6-7971869670F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63C80E4-E04D-C54C-BD17-6B7303992E27}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1064A31-FF8B-7847-9D71-DE584126699A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -448,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -462,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0.312</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -479,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -490,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -504,13 +612,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>0.312</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -518,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -532,8 +640,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F05F3E-885F-A34D-A87E-926226330040}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F751DA-1525-0244-9578-DCEAD34D2727}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -556,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.125</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="C2">
-        <v>0.46899999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="D2">
-        <v>0.28100000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.156</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -587,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D4">
-        <v>6.2E-2</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,13 +706,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>6.2E-2</v>
+        <v>0.182</v>
       </c>
       <c r="C5">
-        <v>3.1E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D5">
-        <v>3.1E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.65600000000000003</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,121 +734,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C33159-A93F-9B41-9410-345D289C5471}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.625</v>
-      </c>
-      <c r="D2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D4">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.182</v>
-      </c>
-      <c r="C5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824686B8-972A-FF4A-8CF3-197E9A471E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6190205F-4DC4-C44D-8963-589D0F3AE6A1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -820,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,13 +828,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222B74D7-2928-7346-9E5A-6F9920023014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7C4F08-FF72-EF42-BB49-6109BECB3254}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.1E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C3">
         <v>3.1E-2</v>
@@ -922,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.312</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
         <v>0.71899999999999997</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -936,13 +936,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.65600000000000003</v>
+        <v>0.312</v>
       </c>
       <c r="C6">
         <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360519A1-498C-974D-9601-15B38E0FA324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8492C46E-727F-054A-AD34-6128A23B3129}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1044,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
